--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -8,8 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSPE_edu_player\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E5AC32-14CC-4CAA-B3C2-E13566014A00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0PBfxCmoz4HZyEv9UKhwVCO+Z1YhOxi3X0sM1B8R1vlec7VzHWnUD9AWxv7BCWrArOLUNXJyTZMBM5YIL/P+3Q==" workbookSaltValue="d8IDpvfAYWifdBgYAqzbnA==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB1005-DFB4-4ED7-B3C2-2E774BEC2E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/t9OW/qWAXbq8ovhrJ80iV0Q42S7jvcQ8uLsGa00Kp6FCYpeMfjYzDsSBMDwffxFvM9OwA8lk+pHi/XRrVAaWw==" workbookSaltValue="5eoT1ix+58r0Bs6wnOgh/g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="2175" yWindow="975" windowWidth="26715" windowHeight="14325" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,10 @@
   </si>
   <si>
     <t>hsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k1577</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,7 +383,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -407,8 +411,8 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>15777435</v>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -423,7 +427,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/data/login.xlsx
+++ b/data/login.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSPE_edu_player\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDB1005-DFB4-4ED7-B3C2-2E774BEC2E1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/t9OW/qWAXbq8ovhrJ80iV0Q42S7jvcQ8uLsGa00Kp6FCYpeMfjYzDsSBMDwffxFvM9OwA8lk+pHi/XRrVAaWw==" workbookSaltValue="5eoT1ix+58r0Bs6wnOgh/g==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FFC14F-1FB9-4331-9277-A032898481C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="kC5MVYzRg/AhPIbLgcBb8kfWAGB8sXHsh8BxLdHeO4HPuXzhTEb2Nvy/gtJT9CbAJjgwGMNxTk6BqCYUtOh0eA==" workbookSaltValue="JH50/OBuqzOyesLS7NXE/g==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="975" windowWidth="26715" windowHeight="14325" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="690" windowWidth="19440" windowHeight="15150" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hsplogin" sheetId="1" state="hidden" r:id="rId1"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
